--- a/ImportFileForm/Mau_phieu_nhap_nhan_vien.xlsx
+++ b/ImportFileForm/Mau_phieu_nhap_nhan_vien.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\Workspace\NMCNPM\QuanLiNhaSach\ImportFileForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76892702-A918-40EA-9098-FA15B70FC194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="ListNV" sheetId="2" r:id="rId1"/>
@@ -63,9 +62,6 @@
     <t>Trần Tiến Đạt</t>
   </si>
   <si>
-    <t>haha@gmail.com</t>
-  </si>
-  <si>
     <t>Nhân viên</t>
   </si>
   <si>
@@ -81,9 +77,6 @@
     <t>Danh sách nhân viên</t>
   </si>
   <si>
-    <t>hoho@gmail.com</t>
-  </si>
-  <si>
     <t>duc123</t>
   </si>
   <si>
@@ -99,9 +92,6 @@
     <t>Nguyễn Tuấn Kiệt</t>
   </si>
   <si>
-    <t>hihi@gmail.com</t>
-  </si>
-  <si>
     <t>0948057293</t>
   </si>
   <si>
@@ -121,17 +111,26 @@
   </si>
   <si>
     <t>25/5/2003</t>
+  </si>
+  <si>
+    <t>tiendatuit@gmail.com</t>
+  </si>
+  <si>
+    <t>thedunguit@gmail.com</t>
+  </si>
+  <si>
+    <t>tuankietuit@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,7 +138,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,29 +146,21 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,13 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -568,75 +556,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.8984375" customWidth="1"/>
+    <col min="12" max="12" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
+    <row r="4" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -672,118 +660,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="2">
         <v>10000000</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>10000000</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>10000000</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -791,9 +779,9 @@
     <mergeCell ref="A1:L3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/ImportFileForm/Mau_phieu_nhap_nhan_vien.xlsx
+++ b/ImportFileForm/Mau_phieu_nhap_nhan_vien.xlsx
@@ -62,9 +62,6 @@
     <t>Trần Tiến Đạt</t>
   </si>
   <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>tuankietuit@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhân Viên</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -624,7 +624,7 @@
     </row>
     <row r="4" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -668,34 +668,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>10000000</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -703,37 +703,37 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>10000000</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -741,37 +741,37 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>10000000</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
